--- a/szakmaiGyakorlatDokumentacio/Kivitelezes/ElsoLepes-AdatokGeneralasa/AmbuLancAdatok.xlsx
+++ b/szakmaiGyakorlatDokumentacio/Kivitelezes/ElsoLepes-AdatokGeneralasa/AmbuLancAdatok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\InfGit\ambulanc\szakmaiGyakorlatDokumentacio\Kivitelezes\ElsoLepes-AdatokGeneralasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17101C7-0A24-42F0-BE99-61E4BE89D84C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A031E0-66CD-48AE-A538-1AEC42A5DB23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Szemely" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="960">
   <si>
     <t>Erdôs</t>
   </si>
@@ -2301,6 +2301,615 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Statusz</t>
+  </si>
+  <si>
+    <t>ErosMarkos@cuvox.de</t>
+  </si>
+  <si>
+    <t>LangMaria@superrito.com</t>
+  </si>
+  <si>
+    <t>NemethBrigitta@jourrapide.com</t>
+  </si>
+  <si>
+    <t>FenyvessyCsanad@rhyta.com</t>
+  </si>
+  <si>
+    <t>ZsinkoArpad@armyspy.com</t>
+  </si>
+  <si>
+    <t>FejesSzescx@armyspy.com</t>
+  </si>
+  <si>
+    <t>SzokeTamara@armyspy.com</t>
+  </si>
+  <si>
+    <t>SeressBora@jourrapide.com</t>
+  </si>
+  <si>
+    <t>ThuryKellman@einrot.com</t>
+  </si>
+  <si>
+    <t>BalogOguz@cuvox.de</t>
+  </si>
+  <si>
+    <t>KonyaVarkony@einrot.com</t>
+  </si>
+  <si>
+    <t>VagnerDeco@dayrep.com</t>
+  </si>
+  <si>
+    <t>FazakasCsenger@superrito.com</t>
+  </si>
+  <si>
+    <t>SebestyenAndrea@jourrapide.com</t>
+  </si>
+  <si>
+    <t>PaalMiksa@dayrep.com</t>
+  </si>
+  <si>
+    <t>SzatmaryVayk@fleckens.hu</t>
+  </si>
+  <si>
+    <t>MeyerKadosa@einrot.com</t>
+  </si>
+  <si>
+    <t>ForgachKornel@rhyta.com</t>
+  </si>
+  <si>
+    <t>MullnerLorinc@dayrep.com</t>
+  </si>
+  <si>
+    <t>GalFlora@cuvox.de</t>
+  </si>
+  <si>
+    <t>MarkoFulop@einrot.com</t>
+  </si>
+  <si>
+    <t>GyorffyRokus@dayrep.com</t>
+  </si>
+  <si>
+    <t>UrbanLaszlo@dayrep.com</t>
+  </si>
+  <si>
+    <t>SmittTihamer@fleckens.hu</t>
+  </si>
+  <si>
+    <t>PalffyIstvan@jourrapide.com</t>
+  </si>
+  <si>
+    <t>FoldySzabolcs@rhyta.com</t>
+  </si>
+  <si>
+    <t>GyorffiRobi@armyspy.com</t>
+  </si>
+  <si>
+    <t>HercegJanos@rhyta.com</t>
+  </si>
+  <si>
+    <t>IllyesZigana@teleworm.us</t>
+  </si>
+  <si>
+    <t>DankaBajnok@dayrep.com</t>
+  </si>
+  <si>
+    <t>ReveszGara@jourrapide.com</t>
+  </si>
+  <si>
+    <t>MullnerKartal@dayrep.com</t>
+  </si>
+  <si>
+    <t>KecskesBarbara@superrito.com</t>
+  </si>
+  <si>
+    <t>SzollossyKat@gustr.com</t>
+  </si>
+  <si>
+    <t>LorinczJulcsa@einrot.com</t>
+  </si>
+  <si>
+    <t>HuszarOrzsebet@jourrapide.com</t>
+  </si>
+  <si>
+    <t>KocsisMiksa@einrot.com</t>
+  </si>
+  <si>
+    <t>KallaiBenci@rhyta.com</t>
+  </si>
+  <si>
+    <t>SzucsGyuszi@dayrep.com</t>
+  </si>
+  <si>
+    <t>MakaiLazar@dayrep.com</t>
+  </si>
+  <si>
+    <t>BakosRez@dayrep.com</t>
+  </si>
+  <si>
+    <t>SzaszDomonkos@dayrep.com</t>
+  </si>
+  <si>
+    <t>KaszaPeterke@teleworm.us</t>
+  </si>
+  <si>
+    <t>SzalaiRez@superrito.com</t>
+  </si>
+  <si>
+    <t>FabianCsilla@rhyta.com</t>
+  </si>
+  <si>
+    <t>PollakTimea@gustr.com</t>
+  </si>
+  <si>
+    <t>FoldiUgor@cuvox.de</t>
+  </si>
+  <si>
+    <t>SzellGedeon@dayrep.com</t>
+  </si>
+  <si>
+    <t>BorbasSzilard@einrot.com</t>
+  </si>
+  <si>
+    <t>FoldyIcaIlka@rhyta.com</t>
+  </si>
+  <si>
+    <t>FoldesLantos@fleckens.hu</t>
+  </si>
+  <si>
+    <t>SzaszNikoletta@cuvox.de</t>
+  </si>
+  <si>
+    <t>DeakOrs@gustr.com</t>
+  </si>
+  <si>
+    <t>GalCzigany@rhyta.com</t>
+  </si>
+  <si>
+    <t>AsztalosGitta@jourrapide.com</t>
+  </si>
+  <si>
+    <t>WagnerBianka@rhyta.com</t>
+  </si>
+  <si>
+    <t>CsordasFanni@gustr.com</t>
+  </si>
+  <si>
+    <t>SzepesBorka@einrot.com</t>
+  </si>
+  <si>
+    <t>TolnaiAttila@fleckens.hu</t>
+  </si>
+  <si>
+    <t>SchmitOzor@armyspy.com</t>
+  </si>
+  <si>
+    <t>VighSzabina@fleckens.hu</t>
+  </si>
+  <si>
+    <t>DeakFruzsina@armyspy.com</t>
+  </si>
+  <si>
+    <t>KerekesFirenze@rhyta.com</t>
+  </si>
+  <si>
+    <t>PolachIbolya@jourrapide.com</t>
+  </si>
+  <si>
+    <t>BerkyGizi@superrito.com</t>
+  </si>
+  <si>
+    <t>MakkaiRenata@superrito.com</t>
+  </si>
+  <si>
+    <t>SmidPentele@dayrep.com</t>
+  </si>
+  <si>
+    <t>SalaiMatyas@jourrapide.com</t>
+  </si>
+  <si>
+    <t>SaaghyElek@jourrapide.com</t>
+  </si>
+  <si>
+    <t>PalTarcal@rhyta.com</t>
+  </si>
+  <si>
+    <t>SzegedyArnold@superrito.com</t>
+  </si>
+  <si>
+    <t>HercegDeco@armyspy.com</t>
+  </si>
+  <si>
+    <t>BernathLaborc@superrito.com</t>
+  </si>
+  <si>
+    <t>KatonaAranka@armyspy.com</t>
+  </si>
+  <si>
+    <t>FeketeSzonja@gustr.com</t>
+  </si>
+  <si>
+    <t>SzutsRoland@fleckens.hu</t>
+  </si>
+  <si>
+    <t>SzarkaOszlar@dayrep.com</t>
+  </si>
+  <si>
+    <t>PinterSebestyen@cuvox.de</t>
+  </si>
+  <si>
+    <t>KocsisFanni@cuvox.de</t>
+  </si>
+  <si>
+    <t>SzabadosCsenger@teleworm.us</t>
+  </si>
+  <si>
+    <t>SzakatsKerecsen@einrot.com</t>
+  </si>
+  <si>
+    <t>RatzMalcsi@dayrep.com</t>
+  </si>
+  <si>
+    <t>FerencziVanessza@fleckens.hu</t>
+  </si>
+  <si>
+    <t>ErdelyiCili@jourrapide.com</t>
+  </si>
+  <si>
+    <t>GeraEszter@einrot.com</t>
+  </si>
+  <si>
+    <t>SzutsRoland@teleworm.us</t>
+  </si>
+  <si>
+    <t>VorossKeleman@gustr.com</t>
+  </si>
+  <si>
+    <t>SzolossiKeled@cuvox.de</t>
+  </si>
+  <si>
+    <t>PalfyFrici@rhyta.com</t>
+  </si>
+  <si>
+    <t>SzollossyGazsi@teleworm.us</t>
+  </si>
+  <si>
+    <t>CsorbaErzebet@fleckens.hu</t>
+  </si>
+  <si>
+    <t>PalffiJazmin@fleckens.hu</t>
+  </si>
+  <si>
+    <t>SzakalyPiusz@dayrep.com</t>
+  </si>
+  <si>
+    <t>CsontosSoma@gustr.com</t>
+  </si>
+  <si>
+    <t>CsonkaIzsak@rhyta.com</t>
+  </si>
+  <si>
+    <t>FoldyIcaIlka@jourrapide.com</t>
+  </si>
+  <si>
+    <t>MatyasLiza@fleckens.hu</t>
+  </si>
+  <si>
+    <t>SeressEgyed@rhyta.com</t>
+  </si>
+  <si>
+    <t>SultisBorbala@jourrapide.com</t>
+  </si>
+  <si>
+    <t>SchmittIzabella@armyspy.com</t>
+  </si>
+  <si>
+    <t>Felhasznalonev</t>
+  </si>
+  <si>
+    <t>Counnoted</t>
+  </si>
+  <si>
+    <t>Bessithe</t>
+  </si>
+  <si>
+    <t>Aphis1991</t>
+  </si>
+  <si>
+    <t>Yousses</t>
+  </si>
+  <si>
+    <t>Enctiong</t>
+  </si>
+  <si>
+    <t>Wroing</t>
+  </si>
+  <si>
+    <t>Campt1981</t>
+  </si>
+  <si>
+    <t>Ragespoet</t>
+  </si>
+  <si>
+    <t>Tandishe</t>
+  </si>
+  <si>
+    <t>Bleady</t>
+  </si>
+  <si>
+    <t>Puter1962</t>
+  </si>
+  <si>
+    <t>Knowers</t>
+  </si>
+  <si>
+    <t>Pire1947</t>
+  </si>
+  <si>
+    <t>Grall1996</t>
+  </si>
+  <si>
+    <t>Hembill</t>
+  </si>
+  <si>
+    <t>Fibine</t>
+  </si>
+  <si>
+    <t>Prewn1979</t>
+  </si>
+  <si>
+    <t>Unterequan</t>
+  </si>
+  <si>
+    <t>Thends</t>
+  </si>
+  <si>
+    <t>Themake</t>
+  </si>
+  <si>
+    <t>Frompan</t>
+  </si>
+  <si>
+    <t>Spinhe1970</t>
+  </si>
+  <si>
+    <t>Pirclue</t>
+  </si>
+  <si>
+    <t>Thersemeaten</t>
+  </si>
+  <si>
+    <t>Fragend</t>
+  </si>
+  <si>
+    <t>Coped1944</t>
+  </si>
+  <si>
+    <t>Sysion</t>
+  </si>
+  <si>
+    <t>Dramuch</t>
+  </si>
+  <si>
+    <t>Beepireed</t>
+  </si>
+  <si>
+    <t>Actemend</t>
+  </si>
+  <si>
+    <t>Arth1982</t>
+  </si>
+  <si>
+    <t>Thedignst</t>
+  </si>
+  <si>
+    <t>Deanne63</t>
+  </si>
+  <si>
+    <t>Milesse</t>
+  </si>
+  <si>
+    <t>Gotal1996</t>
+  </si>
+  <si>
+    <t>Chrome50</t>
+  </si>
+  <si>
+    <t>Poppershe</t>
+  </si>
+  <si>
+    <t>Flut1945</t>
+  </si>
+  <si>
+    <t>Retharts</t>
+  </si>
+  <si>
+    <t>Frouths</t>
+  </si>
+  <si>
+    <t>Whomen</t>
+  </si>
+  <si>
+    <t>Sinattletle1951</t>
+  </si>
+  <si>
+    <t>Suaid1956</t>
+  </si>
+  <si>
+    <t>Sidia1996</t>
+  </si>
+  <si>
+    <t>Thookinieng</t>
+  </si>
+  <si>
+    <t>Pridge</t>
+  </si>
+  <si>
+    <t>Thoutencers</t>
+  </si>
+  <si>
+    <t>Suldy1980</t>
+  </si>
+  <si>
+    <t>Knours1989</t>
+  </si>
+  <si>
+    <t>Histo1978</t>
+  </si>
+  <si>
+    <t>Debafrould1937</t>
+  </si>
+  <si>
+    <t>Wireds</t>
+  </si>
+  <si>
+    <t>Woughat</t>
+  </si>
+  <si>
+    <t>Gazile</t>
+  </si>
+  <si>
+    <t>Fewasy</t>
+  </si>
+  <si>
+    <t>Othoose1956</t>
+  </si>
+  <si>
+    <t>Liner1946</t>
+  </si>
+  <si>
+    <t>Areacking</t>
+  </si>
+  <si>
+    <t>Tileords</t>
+  </si>
+  <si>
+    <t>Muctnow</t>
+  </si>
+  <si>
+    <t>Youghtisto</t>
+  </si>
+  <si>
+    <t>Illaxy45</t>
+  </si>
+  <si>
+    <t>Vased1934</t>
+  </si>
+  <si>
+    <t>Ract1998</t>
+  </si>
+  <si>
+    <t>Sibluself</t>
+  </si>
+  <si>
+    <t>Diect1994</t>
+  </si>
+  <si>
+    <t>Younarright</t>
+  </si>
+  <si>
+    <t>Domse1965</t>
+  </si>
+  <si>
+    <t>Eirchey</t>
+  </si>
+  <si>
+    <t>Prond1984</t>
+  </si>
+  <si>
+    <t>Siond1962</t>
+  </si>
+  <si>
+    <t>Seld1961</t>
+  </si>
+  <si>
+    <t>Hature</t>
+  </si>
+  <si>
+    <t>Swas1977</t>
+  </si>
+  <si>
+    <t>Kattlet</t>
+  </si>
+  <si>
+    <t>Halique</t>
+  </si>
+  <si>
+    <t>Oneverse</t>
+  </si>
+  <si>
+    <t>Tionge</t>
+  </si>
+  <si>
+    <t>Forideare</t>
+  </si>
+  <si>
+    <t>Thaing</t>
+  </si>
+  <si>
+    <t>Thossittly</t>
+  </si>
+  <si>
+    <t>Judis1961</t>
+  </si>
+  <si>
+    <t>Dresseppy</t>
+  </si>
+  <si>
+    <t>Diect1990</t>
+  </si>
+  <si>
+    <t>Forint</t>
+  </si>
+  <si>
+    <t>Wrign1986</t>
+  </si>
+  <si>
+    <t>Noweat</t>
+  </si>
+  <si>
+    <t>Thys1981</t>
+  </si>
+  <si>
+    <t>Aninilead</t>
+  </si>
+  <si>
+    <t>Winfory</t>
+  </si>
+  <si>
+    <t>Evesuselet</t>
+  </si>
+  <si>
+    <t>Haterearged59</t>
+  </si>
+  <si>
+    <t>Eine1962</t>
+  </si>
+  <si>
+    <t>Operepien</t>
+  </si>
+  <si>
+    <t>Attle1942</t>
+  </si>
+  <si>
+    <t>Mange1988</t>
+  </si>
+  <si>
+    <t>Givand</t>
+  </si>
+  <si>
+    <t>Coullefelow</t>
+  </si>
+  <si>
+    <t>Hiniisteron</t>
+  </si>
+  <si>
+    <t>Cown1952</t>
   </si>
 </sst>
 </file>
@@ -3149,10 +3758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3160,3544 +3769,4757 @@
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" t="s">
         <v>366</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>367</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>757</v>
+      </c>
+      <c r="I1" t="s">
         <v>453</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>370</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>371</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>416</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>417</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="O1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F2" t="s">
         <v>300</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F2">
+      <c r="H2" t="s">
+        <v>759</v>
+      </c>
+      <c r="I2">
         <v>8417</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>372</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>383</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>63</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F3" t="s">
         <v>301</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F3">
+      <c r="H3" t="s">
+        <v>760</v>
+      </c>
+      <c r="I3">
         <v>9620</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>373</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>380</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>72</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F4" t="s">
         <v>419</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F4">
+      <c r="H4" t="s">
+        <v>761</v>
+      </c>
+      <c r="I4">
         <v>4082</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>374</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>388</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="F5" t="s">
         <v>420</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F5">
+      <c r="H5" t="s">
+        <v>762</v>
+      </c>
+      <c r="I5">
         <v>7929</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>375</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>381</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="F6" t="s">
         <v>421</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="F6">
+      <c r="H6" t="s">
+        <v>763</v>
+      </c>
+      <c r="I6">
         <v>5348</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>376</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>382</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>60</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="F7" t="s">
         <v>302</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F7">
+      <c r="H7" t="s">
+        <v>764</v>
+      </c>
+      <c r="I7">
         <v>2597</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>377</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>383</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>8</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="F8" t="s">
         <v>422</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F8">
+      <c r="H8" t="s">
+        <v>765</v>
+      </c>
+      <c r="I8">
         <v>5786</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>378</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>383</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>91</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F9" t="s">
         <v>423</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F9">
+      <c r="H9" t="s">
+        <v>766</v>
+      </c>
+      <c r="I9">
         <v>8195</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>384</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>383</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>94</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="F10" t="s">
         <v>424</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F10">
+      <c r="H10" t="s">
+        <v>767</v>
+      </c>
+      <c r="I10">
         <v>8839</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>385</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>383</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>20</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
+      <c r="O10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="F11" t="s">
         <v>303</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F11">
+      <c r="H11" t="s">
+        <v>768</v>
+      </c>
+      <c r="I11">
         <v>4147</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
         <v>386</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>380</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>12</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="F12" t="s">
         <v>425</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F12">
+      <c r="H12" t="s">
+        <v>769</v>
+      </c>
+      <c r="I12">
         <v>2025</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>41</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
         <v>377</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>383</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>87</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F13" t="s">
         <v>304</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F13">
+      <c r="H13" t="s">
+        <v>770</v>
+      </c>
+      <c r="I13">
         <v>3318</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
         <v>386</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>380</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>89</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>46</v>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="F14" t="s">
         <v>305</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="F14">
+      <c r="H14" t="s">
+        <v>771</v>
+      </c>
+      <c r="I14">
         <v>7111</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>387</v>
       </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>388</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>64</v>
       </c>
-      <c r="K14" t="s">
+      <c r="N14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
       </c>
       <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F15" t="s">
         <v>426</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F15">
+      <c r="H15" t="s">
+        <v>772</v>
+      </c>
+      <c r="I15">
         <v>4340</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>51</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" t="s">
         <v>374</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>388</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>62</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="F16" t="s">
         <v>427</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="F16">
+      <c r="H16" t="s">
+        <v>773</v>
+      </c>
+      <c r="I16">
         <v>6362</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>55</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" t="s">
         <v>389</v>
       </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>388</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>27</v>
       </c>
-      <c r="K16" t="s">
+      <c r="N16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>57</v>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
       </c>
       <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="F17" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F17">
+      <c r="H17" t="s">
+        <v>774</v>
+      </c>
+      <c r="I17">
         <v>8209</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" t="s">
         <v>59</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
         <v>377</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>383</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>11</v>
       </c>
-      <c r="K17" t="s">
+      <c r="N17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>61</v>
+      <c r="O17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
       </c>
       <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="F18" t="s">
         <v>307</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F18">
+      <c r="H18" t="s">
+        <v>775</v>
+      </c>
+      <c r="I18">
         <v>8200</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>63</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
         <v>390</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>391</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>78</v>
       </c>
-      <c r="K18" t="s">
+      <c r="N18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>65</v>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
       </c>
       <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F19" t="s">
         <v>428</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F19">
+      <c r="H19" t="s">
+        <v>776</v>
+      </c>
+      <c r="I19">
         <v>5390</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
         <v>66</v>
       </c>
-      <c r="H19" t="s">
+      <c r="K19" t="s">
         <v>392</v>
       </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>383</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>51</v>
       </c>
-      <c r="K19" t="s">
+      <c r="N19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
+      <c r="O19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
       </c>
       <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="F20" t="s">
         <v>308</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="F20">
+      <c r="H20" t="s">
+        <v>777</v>
+      </c>
+      <c r="I20">
         <v>7379</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>69</v>
       </c>
-      <c r="H20" t="s">
+      <c r="K20" t="s">
         <v>385</v>
       </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>383</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>78</v>
       </c>
-      <c r="K20" t="s">
+      <c r="N20" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>71</v>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
       </c>
       <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F21" t="s">
         <v>429</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F21">
+      <c r="H21" t="s">
+        <v>778</v>
+      </c>
+      <c r="I21">
         <v>9470</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
         <v>72</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" t="s">
         <v>373</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>393</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>93</v>
       </c>
-      <c r="K21" t="s">
+      <c r="N21" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>74</v>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
       </c>
       <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="F22" t="s">
         <v>309</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F22">
+      <c r="H22" t="s">
+        <v>779</v>
+      </c>
+      <c r="I22">
         <v>3634</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>75</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" t="s">
         <v>394</v>
       </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>382</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>51</v>
       </c>
-      <c r="K22" t="s">
+      <c r="N22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>77</v>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
       </c>
       <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
         <v>78</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="F23" t="s">
         <v>430</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F23">
+      <c r="H23" t="s">
+        <v>780</v>
+      </c>
+      <c r="I23">
         <v>6018</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>79</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>378</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>383</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>85</v>
       </c>
-      <c r="K23" t="s">
+      <c r="N23" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>80</v>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
         <v>81</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="F24" t="s">
         <v>431</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F24">
+      <c r="H24" t="s">
+        <v>781</v>
+      </c>
+      <c r="I24">
         <v>7609</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>82</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" t="s">
         <v>395</v>
       </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>383</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>99</v>
       </c>
-      <c r="K24" t="s">
+      <c r="N24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>84</v>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>83</v>
       </c>
       <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F25" t="s">
         <v>432</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F25">
+      <c r="H25" t="s">
+        <v>782</v>
+      </c>
+      <c r="I25">
         <v>3663</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>85</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
         <v>396</v>
       </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>383</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>54</v>
       </c>
-      <c r="K25" t="s">
+      <c r="N25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>87</v>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>86</v>
       </c>
       <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F26" t="s">
         <v>433</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="F26">
+      <c r="H26" t="s">
+        <v>783</v>
+      </c>
+      <c r="I26">
         <v>3195</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26" t="s">
         <v>63</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
         <v>397</v>
       </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>398</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>14</v>
       </c>
-      <c r="K26" t="s">
+      <c r="N26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>90</v>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>89</v>
       </c>
       <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="F27" t="s">
         <v>310</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="F27">
+      <c r="H27" t="s">
+        <v>784</v>
+      </c>
+      <c r="I27">
         <v>1812</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J27" t="s">
         <v>91</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>399</v>
       </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>383</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>6</v>
       </c>
-      <c r="K27" t="s">
+      <c r="N27" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>93</v>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>92</v>
       </c>
       <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
         <v>94</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F28" t="s">
         <v>311</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F28">
+      <c r="H28" t="s">
+        <v>785</v>
+      </c>
+      <c r="I28">
         <v>1302</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J28" t="s">
         <v>95</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>400</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>388</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>74</v>
       </c>
-      <c r="K28" t="s">
+      <c r="N28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>97</v>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>96</v>
       </c>
       <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
         <v>98</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="F29" t="s">
         <v>312</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="F29">
+      <c r="H29" t="s">
+        <v>786</v>
+      </c>
+      <c r="I29">
         <v>6250</v>
       </c>
-      <c r="G29" t="s">
+      <c r="J29" t="s">
         <v>99</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K29" t="s">
         <v>373</v>
       </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>393</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>38</v>
       </c>
-      <c r="K29" t="s">
+      <c r="N29" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>101</v>
+      <c r="O29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>100</v>
       </c>
       <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F30" t="s">
         <v>434</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="F30">
+      <c r="H30" t="s">
+        <v>787</v>
+      </c>
+      <c r="I30">
         <v>2361</v>
       </c>
-      <c r="G30" t="s">
+      <c r="J30" t="s">
         <v>102</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K30" t="s">
         <v>389</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>388</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>45</v>
       </c>
-      <c r="K30" t="s">
+      <c r="N30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>104</v>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>103</v>
       </c>
       <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
         <v>17</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="F31" t="s">
         <v>313</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F31">
+      <c r="H31" t="s">
+        <v>788</v>
+      </c>
+      <c r="I31">
         <v>7393</v>
       </c>
-      <c r="G31" t="s">
+      <c r="J31" t="s">
         <v>105</v>
       </c>
-      <c r="H31" t="s">
+      <c r="K31" t="s">
         <v>395</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>383</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>33</v>
       </c>
-      <c r="K31" t="s">
+      <c r="N31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>106</v>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>86</v>
       </c>
       <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
         <v>25</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F32" t="s">
         <v>314</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F32">
+      <c r="H32" t="s">
+        <v>789</v>
+      </c>
+      <c r="I32">
         <v>3117</v>
       </c>
-      <c r="G32" t="s">
+      <c r="J32" t="s">
         <v>107</v>
       </c>
-      <c r="H32" t="s">
+      <c r="K32" t="s">
         <v>375</v>
       </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>381</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>70</v>
       </c>
-      <c r="K32" t="s">
+      <c r="N32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>109</v>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>108</v>
       </c>
       <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
         <v>17</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F33" t="s">
         <v>315</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F33">
+      <c r="H33" t="s">
+        <v>790</v>
+      </c>
+      <c r="I33">
         <v>8891</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33" t="s">
         <v>110</v>
       </c>
-      <c r="H33" t="s">
+      <c r="K33" t="s">
         <v>379</v>
       </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
         <v>383</v>
       </c>
-      <c r="J33">
+      <c r="M33">
         <v>38</v>
       </c>
-      <c r="K33" t="s">
+      <c r="N33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>112</v>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>111</v>
       </c>
       <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
         <v>58</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F34" t="s">
         <v>435</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="F34">
+      <c r="H34" t="s">
+        <v>791</v>
+      </c>
+      <c r="I34">
         <v>6266</v>
       </c>
-      <c r="G34" t="s">
+      <c r="J34" t="s">
         <v>113</v>
       </c>
-      <c r="H34" t="s">
+      <c r="K34" t="s">
         <v>401</v>
       </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>383</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>61</v>
       </c>
-      <c r="K34" t="s">
+      <c r="N34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>115</v>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>114</v>
       </c>
       <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
         <v>81</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="F35" t="s">
         <v>316</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F35">
+      <c r="H35" t="s">
+        <v>792</v>
+      </c>
+      <c r="I35">
         <v>7119</v>
       </c>
-      <c r="G35" t="s">
+      <c r="J35" t="s">
         <v>116</v>
       </c>
-      <c r="H35" t="s">
+      <c r="K35" t="s">
         <v>390</v>
       </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>391</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>39</v>
       </c>
-      <c r="K35" t="s">
+      <c r="N35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>118</v>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>117</v>
       </c>
       <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
         <v>119</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F36" t="s">
         <v>436</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F36">
+      <c r="H36" t="s">
+        <v>793</v>
+      </c>
+      <c r="I36">
         <v>2887</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36" t="s">
         <v>120</v>
       </c>
-      <c r="H36" t="s">
+      <c r="K36" t="s">
         <v>402</v>
       </c>
-      <c r="I36" t="s">
+      <c r="L36" t="s">
         <v>383</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>82</v>
       </c>
-      <c r="K36" t="s">
+      <c r="N36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>122</v>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>121</v>
       </c>
       <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
         <v>119</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F37" t="s">
         <v>317</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F37">
+      <c r="H37" t="s">
+        <v>794</v>
+      </c>
+      <c r="I37">
         <v>2670</v>
       </c>
-      <c r="G37" t="s">
+      <c r="J37" t="s">
         <v>63</v>
       </c>
-      <c r="H37" t="s">
+      <c r="K37" t="s">
         <v>390</v>
       </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>391</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>11</v>
       </c>
-      <c r="K37" t="s">
+      <c r="N37" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>124</v>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>123</v>
       </c>
       <c r="C38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
         <v>78</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="F38" t="s">
         <v>318</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F38">
+      <c r="H38" t="s">
+        <v>795</v>
+      </c>
+      <c r="I38">
         <v>5404</v>
       </c>
-      <c r="G38" t="s">
+      <c r="J38" t="s">
         <v>125</v>
       </c>
-      <c r="H38" t="s">
+      <c r="K38" t="s">
         <v>403</v>
       </c>
-      <c r="I38" t="s">
+      <c r="L38" t="s">
         <v>383</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>19</v>
       </c>
-      <c r="K38" t="s">
+      <c r="N38" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>127</v>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>126</v>
       </c>
       <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" t="s">
         <v>62</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="F39" t="s">
         <v>319</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F39">
+      <c r="H39" t="s">
+        <v>796</v>
+      </c>
+      <c r="I39">
         <v>3553</v>
       </c>
-      <c r="G39" t="s">
+      <c r="J39" t="s">
         <v>128</v>
       </c>
-      <c r="H39" t="s">
+      <c r="K39" t="s">
         <v>404</v>
       </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>383</v>
       </c>
-      <c r="J39">
+      <c r="M39">
         <v>82</v>
       </c>
-      <c r="K39" t="s">
+      <c r="N39" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>130</v>
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>129</v>
       </c>
       <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="F40" t="s">
         <v>437</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F40">
+      <c r="H40" t="s">
+        <v>797</v>
+      </c>
+      <c r="I40">
         <v>1207</v>
       </c>
-      <c r="G40" t="s">
+      <c r="J40" t="s">
         <v>131</v>
       </c>
-      <c r="H40" t="s">
+      <c r="K40" t="s">
         <v>405</v>
       </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
         <v>388</v>
       </c>
-      <c r="J40">
+      <c r="M40">
         <v>72</v>
       </c>
-      <c r="K40" t="s">
+      <c r="N40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>124</v>
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>132</v>
       </c>
       <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
         <v>133</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F41" t="s">
         <v>320</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="F41">
+      <c r="H41" t="s">
+        <v>798</v>
+      </c>
+      <c r="I41">
         <v>1885</v>
       </c>
-      <c r="G41" t="s">
+      <c r="J41" t="s">
         <v>134</v>
       </c>
-      <c r="H41" t="s">
+      <c r="K41" t="s">
         <v>404</v>
       </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>383</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>79</v>
       </c>
-      <c r="K41" t="s">
+      <c r="N41" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>136</v>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>135</v>
       </c>
       <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" t="s">
         <v>133</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F42" t="s">
         <v>321</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F42">
+      <c r="H42" t="s">
+        <v>799</v>
+      </c>
+      <c r="I42">
         <v>8957</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J42" t="s">
         <v>137</v>
       </c>
-      <c r="H42" t="s">
+      <c r="K42" t="s">
         <v>395</v>
       </c>
-      <c r="I42" t="s">
+      <c r="L42" t="s">
         <v>383</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>58</v>
       </c>
-      <c r="K42" t="s">
+      <c r="N42" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>139</v>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>138</v>
       </c>
       <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="F43" t="s">
         <v>322</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="F43">
+      <c r="H43" t="s">
+        <v>800</v>
+      </c>
+      <c r="I43">
         <v>1182</v>
       </c>
-      <c r="G43" t="s">
+      <c r="J43" t="s">
         <v>140</v>
       </c>
-      <c r="H43" t="s">
+      <c r="K43" t="s">
         <v>403</v>
       </c>
-      <c r="I43" t="s">
+      <c r="L43" t="s">
         <v>383</v>
       </c>
-      <c r="J43">
+      <c r="M43">
         <v>46</v>
       </c>
-      <c r="K43" t="s">
+      <c r="N43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>141</v>
+      <c r="O43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>89</v>
       </c>
       <c r="C44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" t="s">
         <v>21</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="F44" t="s">
         <v>323</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F44">
+      <c r="H44" t="s">
+        <v>801</v>
+      </c>
+      <c r="I44">
         <v>1641</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J44" t="s">
         <v>142</v>
       </c>
-      <c r="H44" t="s">
+      <c r="K44" t="s">
         <v>1</v>
       </c>
-      <c r="I44" t="s">
+      <c r="L44" t="s">
         <v>383</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>75</v>
       </c>
-      <c r="K44" t="s">
+      <c r="N44" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>144</v>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>143</v>
       </c>
       <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" t="s">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="F45" t="s">
         <v>324</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="F45">
+      <c r="H45" t="s">
+        <v>802</v>
+      </c>
+      <c r="I45">
         <v>8788</v>
       </c>
-      <c r="G45" t="s">
+      <c r="J45" t="s">
         <v>145</v>
       </c>
-      <c r="H45" t="s">
+      <c r="K45" t="s">
         <v>373</v>
       </c>
-      <c r="I45" t="s">
+      <c r="L45" t="s">
         <v>393</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>19</v>
       </c>
-      <c r="K45" t="s">
+      <c r="N45" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>147</v>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>146</v>
       </c>
       <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
         <v>148</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="F46" t="s">
         <v>325</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="F46">
+      <c r="H46" t="s">
+        <v>803</v>
+      </c>
+      <c r="I46">
         <v>3464</v>
       </c>
-      <c r="G46" t="s">
+      <c r="J46" t="s">
         <v>149</v>
       </c>
-      <c r="H46" t="s">
+      <c r="K46" t="s">
         <v>385</v>
       </c>
-      <c r="I46" t="s">
+      <c r="L46" t="s">
         <v>383</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>35</v>
       </c>
-      <c r="K46" t="s">
+      <c r="N46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>151</v>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>150</v>
       </c>
       <c r="C47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" t="s">
         <v>36</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="F47" t="s">
         <v>326</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="F47">
+      <c r="H47" t="s">
+        <v>804</v>
+      </c>
+      <c r="I47">
         <v>9407</v>
       </c>
-      <c r="G47" t="s">
+      <c r="J47" t="s">
         <v>152</v>
       </c>
-      <c r="H47" t="s">
+      <c r="K47" t="s">
         <v>406</v>
       </c>
-      <c r="I47" t="s">
+      <c r="L47" t="s">
         <v>388</v>
       </c>
-      <c r="J47">
+      <c r="M47">
         <v>62</v>
       </c>
-      <c r="K47" t="s">
+      <c r="N47" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>154</v>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>153</v>
       </c>
       <c r="C48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" t="s">
         <v>36</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="F48" t="s">
         <v>438</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F48">
+      <c r="H48" t="s">
+        <v>805</v>
+      </c>
+      <c r="I48">
         <v>9757</v>
       </c>
-      <c r="G48" t="s">
+      <c r="J48" t="s">
         <v>155</v>
       </c>
-      <c r="H48" t="s">
+      <c r="K48" t="s">
         <v>404</v>
       </c>
-      <c r="I48" t="s">
+      <c r="L48" t="s">
         <v>383</v>
       </c>
-      <c r="J48">
+      <c r="M48">
         <v>45</v>
       </c>
-      <c r="K48" t="s">
+      <c r="N48" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>157</v>
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>156</v>
       </c>
       <c r="C49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" t="s">
         <v>78</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F49" t="s">
         <v>439</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F49">
+      <c r="H49" t="s">
+        <v>806</v>
+      </c>
+      <c r="I49">
         <v>6713</v>
       </c>
-      <c r="G49" t="s">
+      <c r="J49" t="s">
         <v>158</v>
       </c>
-      <c r="H49" t="s">
+      <c r="K49" t="s">
         <v>387</v>
       </c>
-      <c r="I49" t="s">
+      <c r="L49" t="s">
         <v>388</v>
       </c>
-      <c r="J49">
+      <c r="M49">
         <v>74</v>
       </c>
-      <c r="K49" t="s">
+      <c r="N49" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>159</v>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>60</v>
       </c>
       <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" t="s">
         <v>40</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F50" t="s">
         <v>327</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="F50">
+      <c r="H50" t="s">
+        <v>807</v>
+      </c>
+      <c r="I50">
         <v>9451</v>
       </c>
-      <c r="G50" t="s">
+      <c r="J50" t="s">
         <v>160</v>
       </c>
-      <c r="H50" t="s">
+      <c r="K50" t="s">
         <v>373</v>
       </c>
-      <c r="I50" t="s">
+      <c r="L50" t="s">
         <v>393</v>
       </c>
-      <c r="J50">
+      <c r="M50">
         <v>62</v>
       </c>
-      <c r="K50" t="s">
+      <c r="N50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>9</v>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>161</v>
       </c>
       <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
         <v>21</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F51" t="s">
         <v>328</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="F51">
+      <c r="H51" t="s">
+        <v>808</v>
+      </c>
+      <c r="I51">
         <v>2749</v>
       </c>
-      <c r="G51" t="s">
+      <c r="J51" t="s">
         <v>162</v>
       </c>
-      <c r="H51" t="s">
+      <c r="K51" t="s">
         <v>392</v>
       </c>
-      <c r="I51" t="s">
+      <c r="L51" t="s">
         <v>383</v>
       </c>
-      <c r="J51">
+      <c r="M51">
         <v>69</v>
       </c>
-      <c r="K51" t="s">
+      <c r="N51" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>164</v>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>163</v>
       </c>
       <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
         <v>148</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="F52" t="s">
         <v>329</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F52">
+      <c r="H52" t="s">
+        <v>809</v>
+      </c>
+      <c r="I52">
         <v>7925</v>
       </c>
-      <c r="G52" t="s">
+      <c r="J52" t="s">
         <v>165</v>
       </c>
-      <c r="H52" t="s">
+      <c r="K52" t="s">
         <v>407</v>
       </c>
-      <c r="I52" t="s">
+      <c r="L52" t="s">
         <v>388</v>
       </c>
-      <c r="J52">
+      <c r="M52">
         <v>24</v>
       </c>
-      <c r="K52" t="s">
+      <c r="N52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>167</v>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>166</v>
       </c>
       <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" t="s">
         <v>168</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="F53" t="s">
         <v>440</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F53">
+      <c r="H53" t="s">
+        <v>810</v>
+      </c>
+      <c r="I53">
         <v>3706</v>
       </c>
-      <c r="G53" t="s">
+      <c r="J53" t="s">
         <v>169</v>
       </c>
-      <c r="H53" t="s">
+      <c r="K53" t="s">
         <v>408</v>
       </c>
-      <c r="I53" t="s">
+      <c r="L53" t="s">
         <v>388</v>
       </c>
-      <c r="J53">
+      <c r="M53">
         <v>37</v>
       </c>
-      <c r="K53" t="s">
+      <c r="N53" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>104</v>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>170</v>
       </c>
       <c r="C54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" t="s">
         <v>17</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F54" t="s">
         <v>330</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="F54">
+      <c r="H54" t="s">
+        <v>811</v>
+      </c>
+      <c r="I54">
         <v>4419</v>
       </c>
-      <c r="G54" t="s">
+      <c r="J54" t="s">
         <v>171</v>
       </c>
-      <c r="H54" t="s">
+      <c r="K54" t="s">
         <v>409</v>
       </c>
-      <c r="I54" t="s">
+      <c r="L54" t="s">
         <v>383</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>17</v>
       </c>
-      <c r="K54" t="s">
+      <c r="N54" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>173</v>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>172</v>
       </c>
       <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" t="s">
         <v>25</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="F55" t="s">
         <v>331</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="F55">
+      <c r="H55" t="s">
+        <v>812</v>
+      </c>
+      <c r="I55">
         <v>8936</v>
       </c>
-      <c r="G55" t="s">
+      <c r="J55" t="s">
         <v>174</v>
       </c>
-      <c r="H55" t="s">
+      <c r="K55" t="s">
         <v>410</v>
       </c>
-      <c r="I55" t="s">
+      <c r="L55" t="s">
         <v>383</v>
       </c>
-      <c r="J55">
+      <c r="M55">
         <v>20</v>
       </c>
-      <c r="K55" t="s">
+      <c r="N55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>176</v>
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>175</v>
       </c>
       <c r="C56" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" t="s">
         <v>58</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="F56" t="s">
         <v>332</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F56">
+      <c r="H56" t="s">
+        <v>813</v>
+      </c>
+      <c r="I56">
         <v>2881</v>
       </c>
-      <c r="G56" t="s">
+      <c r="J56" t="s">
         <v>177</v>
       </c>
-      <c r="H56" t="s">
+      <c r="K56" t="s">
         <v>394</v>
       </c>
-      <c r="I56" t="s">
+      <c r="L56" t="s">
         <v>382</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>64</v>
       </c>
-      <c r="K56" t="s">
+      <c r="N56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>179</v>
+      <c r="O56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>178</v>
       </c>
       <c r="C57" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" t="s">
         <v>119</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="F57" t="s">
         <v>333</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="F57">
+      <c r="H57" t="s">
+        <v>814</v>
+      </c>
+      <c r="I57">
         <v>1610</v>
       </c>
-      <c r="G57" t="s">
+      <c r="J57" t="s">
         <v>180</v>
       </c>
-      <c r="H57" t="s">
+      <c r="K57" t="s">
         <v>403</v>
       </c>
-      <c r="I57" t="s">
+      <c r="L57" t="s">
         <v>383</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>45</v>
       </c>
-      <c r="K57" t="s">
+      <c r="N57" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>182</v>
+      <c r="O57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>181</v>
       </c>
       <c r="C58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" t="s">
         <v>14</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F58" t="s">
         <v>334</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="F58">
+      <c r="H58" t="s">
+        <v>815</v>
+      </c>
+      <c r="I58">
         <v>1625</v>
       </c>
-      <c r="G58" t="s">
+      <c r="J58" t="s">
         <v>183</v>
       </c>
-      <c r="H58" t="s">
+      <c r="K58" t="s">
         <v>378</v>
       </c>
-      <c r="I58" t="s">
+      <c r="L58" t="s">
         <v>383</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>16</v>
       </c>
-      <c r="K58" t="s">
+      <c r="N58" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>185</v>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>184</v>
       </c>
       <c r="C59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="F59" t="s">
         <v>335</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="F59">
+      <c r="H59" t="s">
+        <v>816</v>
+      </c>
+      <c r="I59">
         <v>3705</v>
       </c>
-      <c r="G59" t="s">
+      <c r="J59" t="s">
         <v>186</v>
       </c>
-      <c r="H59" t="s">
+      <c r="K59" t="s">
         <v>379</v>
       </c>
-      <c r="I59" t="s">
+      <c r="L59" t="s">
         <v>383</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>5</v>
       </c>
-      <c r="K59" t="s">
+      <c r="N59" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>188</v>
+      <c r="O59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>187</v>
       </c>
       <c r="C60" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" t="s">
         <v>88</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="F60" t="s">
         <v>336</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F60">
+      <c r="H60" t="s">
+        <v>817</v>
+      </c>
+      <c r="I60">
         <v>6014</v>
       </c>
-      <c r="G60" t="s">
+      <c r="J60" t="s">
         <v>189</v>
       </c>
-      <c r="H60" t="s">
+      <c r="K60" t="s">
         <v>378</v>
       </c>
-      <c r="I60" t="s">
+      <c r="L60" t="s">
         <v>383</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>28</v>
       </c>
-      <c r="K60" t="s">
+      <c r="N60" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>191</v>
+      <c r="O60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>190</v>
       </c>
       <c r="C61" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" t="s">
         <v>40</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F61" t="s">
         <v>441</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="F61">
+      <c r="H61" t="s">
+        <v>818</v>
+      </c>
+      <c r="I61">
         <v>7652</v>
       </c>
-      <c r="G61" t="s">
+      <c r="J61" t="s">
         <v>192</v>
       </c>
-      <c r="H61" t="s">
+      <c r="K61" t="s">
         <v>411</v>
       </c>
-      <c r="I61" t="s">
+      <c r="L61" t="s">
         <v>380</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>91</v>
       </c>
-      <c r="K61" t="s">
+      <c r="N61" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>193</v>
+      <c r="O61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" t="s">
         <v>58</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="F62" t="s">
         <v>442</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="F62">
+      <c r="H62" t="s">
+        <v>819</v>
+      </c>
+      <c r="I62">
         <v>1244</v>
       </c>
-      <c r="G62" t="s">
+      <c r="J62" t="s">
         <v>194</v>
       </c>
-      <c r="H62" t="s">
+      <c r="K62" t="s">
         <v>402</v>
       </c>
-      <c r="I62" t="s">
+      <c r="L62" t="s">
         <v>383</v>
       </c>
-      <c r="J62">
+      <c r="M62">
         <v>96</v>
       </c>
-      <c r="K62" t="s">
+      <c r="N62" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>196</v>
+      <c r="O62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>195</v>
       </c>
       <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" t="s">
         <v>10</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="F63" t="s">
         <v>337</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F63">
+      <c r="H63" t="s">
+        <v>820</v>
+      </c>
+      <c r="I63">
         <v>6318</v>
       </c>
-      <c r="G63" t="s">
+      <c r="J63" t="s">
         <v>197</v>
       </c>
-      <c r="H63" t="s">
+      <c r="K63" t="s">
         <v>405</v>
       </c>
-      <c r="I63" t="s">
+      <c r="L63" t="s">
         <v>388</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>25</v>
       </c>
-      <c r="K63" t="s">
+      <c r="N63" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>199</v>
+      <c r="O63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>198</v>
       </c>
       <c r="C64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" t="s">
         <v>36</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F64" t="s">
         <v>443</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="F64">
+      <c r="H64" t="s">
+        <v>821</v>
+      </c>
+      <c r="I64">
         <v>5261</v>
       </c>
-      <c r="G64" t="s">
+      <c r="J64" t="s">
         <v>63</v>
       </c>
-      <c r="H64" t="s">
+      <c r="K64" t="s">
         <v>390</v>
       </c>
-      <c r="I64" t="s">
+      <c r="L64" t="s">
         <v>391</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>81</v>
       </c>
-      <c r="K64" t="s">
+      <c r="N64" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>201</v>
+      <c r="O64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>200</v>
       </c>
       <c r="C65" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" t="s">
         <v>25</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="F65" t="s">
         <v>444</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="F65">
+      <c r="H65" t="s">
+        <v>822</v>
+      </c>
+      <c r="I65">
         <v>9023</v>
       </c>
-      <c r="G65" t="s">
+      <c r="J65" t="s">
         <v>202</v>
       </c>
-      <c r="H65" t="s">
+      <c r="K65" t="s">
         <v>396</v>
       </c>
-      <c r="I65" t="s">
+      <c r="L65" t="s">
         <v>383</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>37</v>
       </c>
-      <c r="K65" t="s">
+      <c r="N65" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>204</v>
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>203</v>
       </c>
       <c r="C66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" t="s">
         <v>54</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="F66" t="s">
         <v>445</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F66">
+      <c r="H66" t="s">
+        <v>823</v>
+      </c>
+      <c r="I66">
         <v>1565</v>
       </c>
-      <c r="G66" t="s">
+      <c r="J66" t="s">
         <v>205</v>
       </c>
-      <c r="H66" t="s">
+      <c r="K66" t="s">
         <v>411</v>
       </c>
-      <c r="I66" t="s">
+      <c r="L66" t="s">
         <v>380</v>
       </c>
-      <c r="J66">
+      <c r="M66">
         <v>77</v>
       </c>
-      <c r="K66" t="s">
+      <c r="N66" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>207</v>
+      <c r="O66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>206</v>
       </c>
       <c r="C67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" t="s">
         <v>14</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="F67" t="s">
         <v>446</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="F67">
+      <c r="H67" t="s">
+        <v>824</v>
+      </c>
+      <c r="I67">
         <v>1857</v>
       </c>
-      <c r="G67" t="s">
+      <c r="J67" t="s">
         <v>208</v>
       </c>
-      <c r="H67" t="s">
+      <c r="K67" t="s">
         <v>378</v>
       </c>
-      <c r="I67" t="s">
+      <c r="L67" t="s">
         <v>383</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>55</v>
       </c>
-      <c r="K67" t="s">
+      <c r="N67" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>210</v>
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>209</v>
       </c>
       <c r="C68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" t="s">
         <v>21</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="F68" t="s">
         <v>338</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="F68">
+      <c r="H68" t="s">
+        <v>825</v>
+      </c>
+      <c r="I68">
         <v>3214</v>
       </c>
-      <c r="G68" t="s">
+      <c r="J68" t="s">
         <v>211</v>
       </c>
-      <c r="H68" t="s">
+      <c r="K68" t="s">
         <v>396</v>
       </c>
-      <c r="I68" t="s">
+      <c r="L68" t="s">
         <v>383</v>
       </c>
-      <c r="J68">
+      <c r="M68">
         <v>14</v>
       </c>
-      <c r="K68" t="s">
+      <c r="N68" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>213</v>
+      <c r="O68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>212</v>
       </c>
       <c r="C69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" t="s">
         <v>21</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="F69" t="s">
         <v>339</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F69">
+      <c r="H69" t="s">
+        <v>826</v>
+      </c>
+      <c r="I69">
         <v>6759</v>
       </c>
-      <c r="G69" t="s">
+      <c r="J69" t="s">
         <v>214</v>
       </c>
-      <c r="H69" t="s">
+      <c r="K69" t="s">
         <v>1</v>
       </c>
-      <c r="I69" t="s">
+      <c r="L69" t="s">
         <v>383</v>
       </c>
-      <c r="J69">
+      <c r="M69">
         <v>73</v>
       </c>
-      <c r="K69" t="s">
+      <c r="N69" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>216</v>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>215</v>
       </c>
       <c r="C70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" t="s">
         <v>40</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="F70" t="s">
         <v>340</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F70">
+      <c r="H70" t="s">
+        <v>827</v>
+      </c>
+      <c r="I70">
         <v>9685</v>
       </c>
-      <c r="G70" t="s">
+      <c r="J70" t="s">
         <v>217</v>
       </c>
-      <c r="H70" t="s">
+      <c r="K70" t="s">
         <v>412</v>
       </c>
-      <c r="I70" t="s">
+      <c r="L70" t="s">
         <v>383</v>
       </c>
-      <c r="J70">
+      <c r="M70">
         <v>4</v>
       </c>
-      <c r="K70" t="s">
+      <c r="N70" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>219</v>
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>218</v>
       </c>
       <c r="C71" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" t="s">
         <v>62</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="F71" t="s">
         <v>341</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="F71">
+      <c r="H71" t="s">
+        <v>828</v>
+      </c>
+      <c r="I71">
         <v>8380</v>
       </c>
-      <c r="G71" t="s">
+      <c r="J71" t="s">
         <v>220</v>
       </c>
-      <c r="H71" t="s">
+      <c r="K71" t="s">
         <v>399</v>
       </c>
-      <c r="I71" t="s">
+      <c r="L71" t="s">
         <v>383</v>
       </c>
-      <c r="J71">
+      <c r="M71">
         <v>17</v>
       </c>
-      <c r="K71" t="s">
+      <c r="N71" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>222</v>
+      <c r="O71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>221</v>
       </c>
       <c r="C72" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" t="s">
         <v>88</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F72" t="s">
         <v>447</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F72">
+      <c r="H72" t="s">
+        <v>829</v>
+      </c>
+      <c r="I72">
         <v>5587</v>
       </c>
-      <c r="G72" t="s">
+      <c r="J72" t="s">
         <v>223</v>
       </c>
-      <c r="H72" t="s">
+      <c r="K72" t="s">
         <v>376</v>
       </c>
-      <c r="I72" t="s">
+      <c r="L72" t="s">
         <v>382</v>
       </c>
-      <c r="J72">
+      <c r="M72">
         <v>10</v>
       </c>
-      <c r="K72" t="s">
+      <c r="N72" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>225</v>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>224</v>
       </c>
       <c r="C73" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" t="s">
         <v>10</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="F73" t="s">
         <v>342</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="F73">
+      <c r="H73" t="s">
+        <v>830</v>
+      </c>
+      <c r="I73">
         <v>5511</v>
       </c>
-      <c r="G73" t="s">
+      <c r="J73" t="s">
         <v>226</v>
       </c>
-      <c r="H73" t="s">
+      <c r="K73" t="s">
         <v>378</v>
       </c>
-      <c r="I73" t="s">
+      <c r="L73" t="s">
         <v>383</v>
       </c>
-      <c r="J73">
+      <c r="M73">
         <v>9</v>
       </c>
-      <c r="K73" t="s">
+      <c r="N73" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>227</v>
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>143</v>
       </c>
       <c r="C74" t="s">
+        <v>227</v>
+      </c>
+      <c r="D74" t="s">
         <v>36</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F74" t="s">
         <v>343</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F74">
+      <c r="H74" t="s">
+        <v>831</v>
+      </c>
+      <c r="I74">
         <v>6835</v>
       </c>
-      <c r="G74" t="s">
+      <c r="J74" t="s">
         <v>228</v>
       </c>
-      <c r="H74" t="s">
+      <c r="K74" t="s">
         <v>411</v>
       </c>
-      <c r="I74" t="s">
+      <c r="L74" t="s">
         <v>380</v>
       </c>
-      <c r="J74">
+      <c r="M74">
         <v>2</v>
       </c>
-      <c r="K74" t="s">
+      <c r="N74" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>229</v>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>83</v>
       </c>
       <c r="C75" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" t="s">
         <v>119</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="F75" t="s">
         <v>344</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="F75">
+      <c r="H75" t="s">
+        <v>832</v>
+      </c>
+      <c r="I75">
         <v>4641</v>
       </c>
-      <c r="G75" t="s">
+      <c r="J75" t="s">
         <v>230</v>
       </c>
-      <c r="H75" t="s">
+      <c r="K75" t="s">
         <v>395</v>
       </c>
-      <c r="I75" t="s">
+      <c r="L75" t="s">
         <v>383</v>
       </c>
-      <c r="J75">
+      <c r="M75">
         <v>2</v>
       </c>
-      <c r="K75" t="s">
+      <c r="N75" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>232</v>
+      <c r="O75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>231</v>
       </c>
       <c r="C76" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" t="s">
         <v>25</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="F76" t="s">
         <v>448</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F76">
+      <c r="H76" t="s">
+        <v>833</v>
+      </c>
+      <c r="I76">
         <v>3883</v>
       </c>
-      <c r="G76" t="s">
+      <c r="J76" t="s">
         <v>233</v>
       </c>
-      <c r="H76" t="s">
+      <c r="K76" t="s">
         <v>394</v>
       </c>
-      <c r="I76" t="s">
+      <c r="L76" t="s">
         <v>382</v>
       </c>
-      <c r="J76">
+      <c r="M76">
         <v>87</v>
       </c>
-      <c r="K76" t="s">
+      <c r="N76" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>234</v>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
       <c r="C77" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" t="s">
         <v>10</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F77" t="s">
         <v>345</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="F77">
+      <c r="H77" t="s">
+        <v>834</v>
+      </c>
+      <c r="I77">
         <v>5527</v>
       </c>
-      <c r="G77" t="s">
+      <c r="J77" t="s">
         <v>235</v>
       </c>
-      <c r="H77" t="s">
+      <c r="K77" t="s">
         <v>375</v>
       </c>
-      <c r="I77" t="s">
+      <c r="L77" t="s">
         <v>381</v>
       </c>
-      <c r="J77">
+      <c r="M77">
         <v>33</v>
       </c>
-      <c r="K77" t="s">
+      <c r="N77" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>237</v>
+      <c r="O77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>236</v>
       </c>
       <c r="C78" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" t="s">
         <v>25</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="F78" t="s">
         <v>346</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="F78">
+      <c r="H78" t="s">
+        <v>835</v>
+      </c>
+      <c r="I78">
         <v>3621</v>
       </c>
-      <c r="G78" t="s">
+      <c r="J78" t="s">
         <v>238</v>
       </c>
-      <c r="H78" t="s">
+      <c r="K78" t="s">
         <v>389</v>
       </c>
-      <c r="I78" t="s">
+      <c r="L78" t="s">
         <v>388</v>
       </c>
-      <c r="J78">
+      <c r="M78">
         <v>2</v>
       </c>
-      <c r="K78" t="s">
+      <c r="N78" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>240</v>
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>239</v>
       </c>
       <c r="C79" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" t="s">
         <v>6</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F79" t="s">
         <v>347</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F79">
+      <c r="H79" t="s">
+        <v>836</v>
+      </c>
+      <c r="I79">
         <v>8863</v>
       </c>
-      <c r="G79" t="s">
+      <c r="J79" t="s">
         <v>241</v>
       </c>
-      <c r="H79" t="s">
+      <c r="K79" t="s">
         <v>373</v>
       </c>
-      <c r="I79" t="s">
+      <c r="L79" t="s">
         <v>380</v>
       </c>
-      <c r="J79">
+      <c r="M79">
         <v>90</v>
       </c>
-      <c r="K79" t="s">
+      <c r="N79" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>243</v>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>242</v>
       </c>
       <c r="C80" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" t="s">
         <v>21</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="F80" t="s">
         <v>348</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F80">
+      <c r="H80" t="s">
+        <v>837</v>
+      </c>
+      <c r="I80">
         <v>2420</v>
       </c>
-      <c r="G80" t="s">
+      <c r="J80" t="s">
         <v>244</v>
       </c>
-      <c r="H80" t="s">
+      <c r="K80" t="s">
         <v>413</v>
       </c>
-      <c r="I80" t="s">
+      <c r="L80" t="s">
         <v>393</v>
       </c>
-      <c r="J80">
+      <c r="M80">
         <v>64</v>
       </c>
-      <c r="K80" t="s">
+      <c r="N80" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>246</v>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>245</v>
       </c>
       <c r="C81" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" t="s">
         <v>62</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F81" t="s">
         <v>349</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="F81">
+      <c r="H81" t="s">
+        <v>838</v>
+      </c>
+      <c r="I81">
         <v>5004</v>
       </c>
-      <c r="G81" t="s">
+      <c r="J81" t="s">
         <v>247</v>
       </c>
-      <c r="H81" t="s">
+      <c r="K81" t="s">
         <v>394</v>
       </c>
-      <c r="I81" t="s">
+      <c r="L81" t="s">
         <v>382</v>
       </c>
-      <c r="J81">
+      <c r="M81">
         <v>28</v>
       </c>
-      <c r="K81" t="s">
+      <c r="N81" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>249</v>
+      <c r="O81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>248</v>
       </c>
       <c r="C82" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" t="s">
         <v>14</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="F82" t="s">
         <v>350</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="F82">
+      <c r="H82" t="s">
+        <v>839</v>
+      </c>
+      <c r="I82">
         <v>9650</v>
       </c>
-      <c r="G82" t="s">
+      <c r="J82" t="s">
         <v>250</v>
       </c>
-      <c r="H82" t="s">
+      <c r="K82" t="s">
         <v>408</v>
       </c>
-      <c r="I82" t="s">
+      <c r="L82" t="s">
         <v>388</v>
       </c>
-      <c r="J82">
+      <c r="M82">
         <v>5</v>
       </c>
-      <c r="K82" t="s">
+      <c r="N82" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>252</v>
+      <c r="O82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>251</v>
       </c>
       <c r="C83" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" t="s">
         <v>88</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="F83" t="s">
         <v>449</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F83">
+      <c r="H83" t="s">
+        <v>840</v>
+      </c>
+      <c r="I83">
         <v>9777</v>
       </c>
-      <c r="G83" t="s">
+      <c r="J83" t="s">
         <v>253</v>
       </c>
-      <c r="H83" t="s">
+      <c r="K83" t="s">
         <v>404</v>
       </c>
-      <c r="I83" t="s">
+      <c r="L83" t="s">
         <v>383</v>
       </c>
-      <c r="J83">
+      <c r="M83">
         <v>57</v>
       </c>
-      <c r="K83" t="s">
+      <c r="N83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>255</v>
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>254</v>
       </c>
       <c r="C84" t="s">
+        <v>255</v>
+      </c>
+      <c r="D84" t="s">
         <v>21</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="F84" t="s">
         <v>351</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="F84">
+      <c r="H84" t="s">
+        <v>841</v>
+      </c>
+      <c r="I84">
         <v>3101</v>
       </c>
-      <c r="G84" t="s">
+      <c r="J84" t="s">
         <v>256</v>
       </c>
-      <c r="H84" t="s">
+      <c r="K84" t="s">
         <v>376</v>
       </c>
-      <c r="I84" t="s">
+      <c r="L84" t="s">
         <v>382</v>
       </c>
-      <c r="J84">
+      <c r="M84">
         <v>46</v>
       </c>
-      <c r="K84" t="s">
+      <c r="N84" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>258</v>
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>257</v>
       </c>
       <c r="C85" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" t="s">
         <v>25</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="F85" t="s">
         <v>352</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="F85">
+      <c r="H85" t="s">
+        <v>842</v>
+      </c>
+      <c r="I85">
         <v>8025</v>
       </c>
-      <c r="G85" t="s">
+      <c r="J85" t="s">
         <v>259</v>
       </c>
-      <c r="H85" t="s">
+      <c r="K85" t="s">
         <v>407</v>
       </c>
-      <c r="I85" t="s">
+      <c r="L85" t="s">
         <v>388</v>
       </c>
-      <c r="J85">
+      <c r="M85">
         <v>27</v>
       </c>
-      <c r="K85" t="s">
+      <c r="N85" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>261</v>
+      <c r="O85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>260</v>
       </c>
       <c r="C86" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" t="s">
         <v>6</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F86" t="s">
         <v>450</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="F86">
+      <c r="H86" t="s">
+        <v>843</v>
+      </c>
+      <c r="I86">
         <v>8973</v>
       </c>
-      <c r="G86" t="s">
+      <c r="J86" t="s">
         <v>63</v>
       </c>
-      <c r="H86" t="s">
+      <c r="K86" t="s">
         <v>397</v>
       </c>
-      <c r="I86" t="s">
+      <c r="L86" t="s">
         <v>398</v>
       </c>
-      <c r="J86">
+      <c r="M86">
         <v>85</v>
       </c>
-      <c r="K86" t="s">
+      <c r="N86" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>263</v>
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>262</v>
       </c>
       <c r="C87" t="s">
+        <v>263</v>
+      </c>
+      <c r="D87" t="s">
         <v>10</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="F87" t="s">
         <v>451</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F87">
+      <c r="H87" t="s">
+        <v>844</v>
+      </c>
+      <c r="I87">
         <v>7674</v>
       </c>
-      <c r="G87" t="s">
+      <c r="J87" t="s">
         <v>264</v>
       </c>
-      <c r="H87" t="s">
+      <c r="K87" t="s">
         <v>379</v>
       </c>
-      <c r="I87" t="s">
+      <c r="L87" t="s">
         <v>383</v>
       </c>
-      <c r="J87">
+      <c r="M87">
         <v>3</v>
       </c>
-      <c r="K87" t="s">
+      <c r="N87" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>266</v>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>265</v>
       </c>
       <c r="C88" t="s">
+        <v>266</v>
+      </c>
+      <c r="D88" t="s">
         <v>62</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="F88" t="s">
         <v>353</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="F88">
+      <c r="H88" t="s">
+        <v>845</v>
+      </c>
+      <c r="I88">
         <v>3714</v>
       </c>
-      <c r="G88" t="s">
+      <c r="J88" t="s">
         <v>63</v>
       </c>
-      <c r="H88" t="s">
+      <c r="K88" t="s">
         <v>390</v>
       </c>
-      <c r="I88" t="s">
+      <c r="L88" t="s">
         <v>391</v>
       </c>
-      <c r="J88">
+      <c r="M88">
         <v>62</v>
       </c>
-      <c r="K88" t="s">
+      <c r="N88" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>268</v>
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>267</v>
       </c>
       <c r="C89" t="s">
+        <v>268</v>
+      </c>
+      <c r="D89" t="s">
         <v>36</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="F89" t="s">
         <v>354</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F89">
+      <c r="H89" t="s">
+        <v>846</v>
+      </c>
+      <c r="I89">
         <v>4724</v>
       </c>
-      <c r="G89" t="s">
+      <c r="J89" t="s">
         <v>269</v>
       </c>
-      <c r="H89" t="s">
+      <c r="K89" t="s">
         <v>394</v>
       </c>
-      <c r="I89" t="s">
+      <c r="L89" t="s">
         <v>382</v>
       </c>
-      <c r="J89">
+      <c r="M89">
         <v>12</v>
       </c>
-      <c r="K89" t="s">
+      <c r="N89" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>271</v>
+      <c r="O89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>270</v>
       </c>
       <c r="C90" t="s">
+        <v>271</v>
+      </c>
+      <c r="D90" t="s">
         <v>81</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="F90" t="s">
         <v>355</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="F90">
+      <c r="H90" t="s">
+        <v>847</v>
+      </c>
+      <c r="I90">
         <v>4821</v>
       </c>
-      <c r="G90" t="s">
+      <c r="J90" t="s">
         <v>272</v>
       </c>
-      <c r="H90" t="s">
+      <c r="K90" t="s">
         <v>412</v>
       </c>
-      <c r="I90" t="s">
+      <c r="L90" t="s">
         <v>383</v>
       </c>
-      <c r="J90">
+      <c r="M90">
         <v>35</v>
       </c>
-      <c r="K90" t="s">
+      <c r="N90" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>100</v>
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>48</v>
       </c>
       <c r="C91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" t="s">
         <v>14</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="F91" t="s">
         <v>356</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="F91">
+      <c r="H91" t="s">
+        <v>848</v>
+      </c>
+      <c r="I91">
         <v>4110</v>
       </c>
-      <c r="G91" t="s">
+      <c r="J91" t="s">
         <v>273</v>
       </c>
-      <c r="H91" t="s">
+      <c r="K91" t="s">
         <v>407</v>
       </c>
-      <c r="I91" t="s">
+      <c r="L91" t="s">
         <v>388</v>
       </c>
-      <c r="J91">
+      <c r="M91">
         <v>14</v>
       </c>
-      <c r="K91" t="s">
+      <c r="N91" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>275</v>
+      <c r="O91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>274</v>
       </c>
       <c r="C92" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" t="s">
         <v>6</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="F92" t="s">
         <v>357</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F92">
+      <c r="H92" t="s">
+        <v>849</v>
+      </c>
+      <c r="I92">
         <v>5461</v>
       </c>
-      <c r="G92" t="s">
+      <c r="J92" t="s">
         <v>276</v>
       </c>
-      <c r="H92" t="s">
+      <c r="K92" t="s">
         <v>414</v>
       </c>
-      <c r="I92" t="s">
+      <c r="L92" t="s">
         <v>383</v>
       </c>
-      <c r="J92">
+      <c r="M92">
         <v>69</v>
       </c>
-      <c r="K92" t="s">
+      <c r="N92" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>278</v>
+      <c r="O92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>277</v>
       </c>
       <c r="C93" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93" t="s">
         <v>40</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F93" t="s">
         <v>358</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="F93">
+      <c r="H93" t="s">
+        <v>850</v>
+      </c>
+      <c r="I93">
         <v>9433</v>
       </c>
-      <c r="G93" t="s">
+      <c r="J93" t="s">
         <v>279</v>
       </c>
-      <c r="H93" t="s">
+      <c r="K93" t="s">
         <v>405</v>
       </c>
-      <c r="I93" t="s">
+      <c r="L93" t="s">
         <v>388</v>
       </c>
-      <c r="J93">
+      <c r="M93">
         <v>59</v>
       </c>
-      <c r="K93" t="s">
+      <c r="N93" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>280</v>
+      <c r="O93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>215</v>
       </c>
       <c r="C94" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" t="s">
         <v>133</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F94" t="s">
         <v>359</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="F94">
+      <c r="H94" t="s">
+        <v>851</v>
+      </c>
+      <c r="I94">
         <v>8479</v>
       </c>
-      <c r="G94" t="s">
+      <c r="J94" t="s">
         <v>63</v>
       </c>
-      <c r="H94" t="s">
+      <c r="K94" t="s">
         <v>397</v>
       </c>
-      <c r="I94" t="s">
+      <c r="L94" t="s">
         <v>398</v>
       </c>
-      <c r="J94">
+      <c r="M94">
         <v>6</v>
       </c>
-      <c r="K94" t="s">
+      <c r="N94" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>282</v>
+      <c r="O94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>281</v>
       </c>
       <c r="C95" t="s">
+        <v>282</v>
+      </c>
+      <c r="D95" t="s">
         <v>168</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="F95" t="s">
         <v>452</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F95">
+      <c r="H95" t="s">
+        <v>852</v>
+      </c>
+      <c r="I95">
         <v>8908</v>
       </c>
-      <c r="G95" t="s">
+      <c r="J95" t="s">
         <v>283</v>
       </c>
-      <c r="H95" t="s">
+      <c r="K95" t="s">
         <v>415</v>
       </c>
-      <c r="I95" t="s">
+      <c r="L95" t="s">
         <v>383</v>
       </c>
-      <c r="J95">
+      <c r="M95">
         <v>41</v>
       </c>
-      <c r="K95" t="s">
+      <c r="N95" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>285</v>
+      <c r="O95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>284</v>
       </c>
       <c r="C96" t="s">
+        <v>285</v>
+      </c>
+      <c r="D96" t="s">
         <v>17</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F96" t="s">
         <v>360</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="F96">
+      <c r="H96" t="s">
+        <v>853</v>
+      </c>
+      <c r="I96">
         <v>6563</v>
       </c>
-      <c r="G96" t="s">
+      <c r="J96" t="s">
         <v>286</v>
       </c>
-      <c r="H96" t="s">
+      <c r="K96" t="s">
         <v>376</v>
       </c>
-      <c r="I96" t="s">
+      <c r="L96" t="s">
         <v>382</v>
       </c>
-      <c r="J96">
+      <c r="M96">
         <v>95</v>
       </c>
-      <c r="K96" t="s">
+      <c r="N96" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>288</v>
+      <c r="O96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>287</v>
       </c>
       <c r="C97" t="s">
+        <v>288</v>
+      </c>
+      <c r="D97" t="s">
         <v>14</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F97" t="s">
         <v>361</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="F97">
+      <c r="H97" t="s">
+        <v>854</v>
+      </c>
+      <c r="I97">
         <v>8353</v>
       </c>
-      <c r="G97" t="s">
+      <c r="J97" t="s">
         <v>289</v>
       </c>
-      <c r="H97" t="s">
+      <c r="K97" t="s">
         <v>379</v>
       </c>
-      <c r="I97" t="s">
+      <c r="L97" t="s">
         <v>383</v>
       </c>
-      <c r="J97">
+      <c r="M97">
         <v>22</v>
       </c>
-      <c r="K97" t="s">
+      <c r="N97" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>268</v>
+      <c r="O97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
       <c r="C98" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" t="s">
         <v>21</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F98" t="s">
         <v>362</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F98">
+      <c r="H98" t="s">
+        <v>855</v>
+      </c>
+      <c r="I98">
         <v>5307</v>
       </c>
-      <c r="G98" t="s">
+      <c r="J98" t="s">
         <v>290</v>
       </c>
-      <c r="H98" t="s">
+      <c r="K98" t="s">
         <v>401</v>
       </c>
-      <c r="I98" t="s">
+      <c r="L98" t="s">
         <v>383</v>
       </c>
-      <c r="J98">
+      <c r="M98">
         <v>59</v>
       </c>
-      <c r="K98" t="s">
+      <c r="N98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>292</v>
+      <c r="O98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>291</v>
       </c>
       <c r="C99" t="s">
+        <v>292</v>
+      </c>
+      <c r="D99" t="s">
         <v>62</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="F99" t="s">
         <v>363</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F99">
+      <c r="H99" t="s">
+        <v>856</v>
+      </c>
+      <c r="I99">
         <v>6818</v>
       </c>
-      <c r="G99" t="s">
+      <c r="J99" t="s">
         <v>293</v>
       </c>
-      <c r="H99" t="s">
+      <c r="K99" t="s">
         <v>413</v>
       </c>
-      <c r="I99" t="s">
+      <c r="L99" t="s">
         <v>393</v>
       </c>
-      <c r="J99">
+      <c r="M99">
         <v>82</v>
       </c>
-      <c r="K99" t="s">
+      <c r="N99" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>295</v>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>294</v>
       </c>
       <c r="C100" t="s">
+        <v>295</v>
+      </c>
+      <c r="D100" t="s">
         <v>25</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F100" t="s">
         <v>364</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="F100">
+      <c r="H100" t="s">
+        <v>857</v>
+      </c>
+      <c r="I100">
         <v>7109</v>
       </c>
-      <c r="G100" t="s">
+      <c r="J100" t="s">
         <v>296</v>
       </c>
-      <c r="H100" t="s">
+      <c r="K100" t="s">
         <v>410</v>
       </c>
-      <c r="I100" t="s">
+      <c r="L100" t="s">
         <v>383</v>
       </c>
-      <c r="J100">
+      <c r="M100">
         <v>70</v>
       </c>
-      <c r="K100" t="s">
+      <c r="N100" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>298</v>
+      <c r="O100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>297</v>
       </c>
       <c r="C101" t="s">
+        <v>298</v>
+      </c>
+      <c r="D101" t="s">
         <v>168</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="F101" t="s">
         <v>365</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F101">
+      <c r="H101" t="s">
+        <v>858</v>
+      </c>
+      <c r="I101">
         <v>6046</v>
       </c>
-      <c r="G101" t="s">
+      <c r="J101" t="s">
         <v>299</v>
       </c>
-      <c r="H101" t="s">
+      <c r="K101" t="s">
         <v>376</v>
       </c>
-      <c r="I101" t="s">
+      <c r="L101" t="s">
         <v>382</v>
       </c>
-      <c r="J101">
+      <c r="M101">
         <v>52</v>
       </c>
-      <c r="K101" t="s">
+      <c r="N101" t="s">
         <v>17</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7228,8 +9050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196CEC04-FB49-479C-9278-820CFD760773}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/szakmaiGyakorlatDokumentacio/Kivitelezes/ElsoLepes-AdatokGeneralasa/AmbuLancAdatok.xlsx
+++ b/szakmaiGyakorlatDokumentacio/Kivitelezes/ElsoLepes-AdatokGeneralasa/AmbuLancAdatok.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\InfGit\ambulanc\szakmaiGyakorlatDokumentacio\Kivitelezes\ElsoLepes-AdatokGeneralasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A031E0-66CD-48AE-A538-1AEC42A5DB23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257D6937-EF7A-4E95-9913-41EC0209C09B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Szemely" sheetId="1" r:id="rId1"/>
-    <sheet name="SimaJelszo" sheetId="3" r:id="rId2"/>
-    <sheet name="Jelszo" sheetId="2" r:id="rId3"/>
+    <sheet name="SzemelyJog" sheetId="4" r:id="rId2"/>
+    <sheet name="SimaJelszo" sheetId="3" r:id="rId3"/>
+    <sheet name="Jelszo" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="962">
   <si>
     <t>Erdôs</t>
   </si>
@@ -2910,6 +2911,12 @@
   </si>
   <si>
     <t>Cown1952</t>
+  </si>
+  <si>
+    <t>JogID</t>
+  </si>
+  <si>
+    <t>SzemelyID</t>
   </si>
 </sst>
 </file>
@@ -3760,7 +3767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -8529,6 +8536,829 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF16537D-C69C-47C6-A754-689B00397C2A}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7C4568-A63F-4104-B3B3-0C2B0CF92A0D}">
   <dimension ref="A1:A100"/>
   <sheetViews>
@@ -9046,7 +9876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196CEC04-FB49-479C-9278-820CFD760773}">
   <dimension ref="A1:B101"/>
   <sheetViews>

--- a/szakmaiGyakorlatDokumentacio/Kivitelezes/ElsoLepes-AdatokGeneralasa/AmbuLancAdatok.xlsx
+++ b/szakmaiGyakorlatDokumentacio/Kivitelezes/ElsoLepes-AdatokGeneralasa/AmbuLancAdatok.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\InfGit\ambulanc\szakmaiGyakorlatDokumentacio\Kivitelezes\ElsoLepes-AdatokGeneralasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257D6937-EF7A-4E95-9913-41EC0209C09B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DEA060-7703-43CE-B832-ED3773557D1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Szemely" sheetId="1" r:id="rId1"/>
     <sheet name="SzemelyJog" sheetId="4" r:id="rId2"/>
-    <sheet name="SimaJelszo" sheetId="3" r:id="rId3"/>
-    <sheet name="Jelszo" sheetId="2" r:id="rId4"/>
+    <sheet name="Jog" sheetId="5" r:id="rId3"/>
+    <sheet name="SimaJelszo" sheetId="3" r:id="rId4"/>
+    <sheet name="Jelszo" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="965">
   <si>
     <t>Erdôs</t>
   </si>
@@ -2917,6 +2918,15 @@
   </si>
   <si>
     <t>SzemelyID</t>
+  </si>
+  <si>
+    <t>Nev</t>
+  </si>
+  <si>
+    <t>Állatok adminisztrációja</t>
+  </si>
+  <si>
+    <t>Felhasználók adminisztrációja</t>
   </si>
 </sst>
 </file>
@@ -8539,7 +8549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF16537D-C69C-47C6-A754-689B00397C2A}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B101"/>
     </sheetView>
   </sheetViews>
@@ -9359,6 +9369,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9340E4E4-79BF-4D7F-928D-AD4EBFE53B44}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7C4568-A63F-4104-B3B3-0C2B0CF92A0D}">
   <dimension ref="A1:A100"/>
   <sheetViews>
@@ -9876,7 +9925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196CEC04-FB49-479C-9278-820CFD760773}">
   <dimension ref="A1:B101"/>
   <sheetViews>
